--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="EBay_Test Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
   <si>
     <t>Testing Type</t>
   </si>
@@ -43,22 +43,6 @@
     <t>Smoke Test</t>
   </si>
   <si>
-    <t>Verify search functionality is working properly.</t>
-  </si>
-  <si>
-    <t>Search results should be displayed according to the search criteria.</t>
-  </si>
-  <si>
-    <t>Check the navigation thorugh different categories(Motors,Fashion etc) on the home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Open the Ebay.com website on any browser.
-2) Verify the different category links (Electronics,Home &amp; Garden) available under search.
-3) Navigate through different categories by clicking on them.
-4) Check user is navigating the corresponding category when user click on the category link.
-</t>
-  </si>
-  <si>
     <t>User should be able to navigate to corresponding category page when click on them on home page.</t>
   </si>
   <si>
@@ -68,106 +52,31 @@
     <t>Check the registered user is able to sign into website.</t>
   </si>
   <si>
-    <t>1) Go to Ebay.com website.
-2) Click on the Register link at the top left side of the home page.
-3) Enter all details on the registeration page and click on submit button.
-4) Verify user is able to register into Ebay website.</t>
-  </si>
-  <si>
-    <t>Verify user is able to place order after Sign Into website.</t>
-  </si>
-  <si>
-    <t>1) Open Ebay.com web site in any browser.
-2) Click on Sign In link at the top left side of the home page.
-3) Enter user name &amp; password on sign In page and click on submit button.
-4) Check user is able to login into Ebay application.</t>
-  </si>
-  <si>
-    <t>1) Login Into website with valid user credentials.
-2) Serach for purchased item using top advanced search option.
-3) Place an order after selecting the item.
-4) Pay the money at the final screen after check out.</t>
-  </si>
-  <si>
     <t>Compatability Test</t>
   </si>
   <si>
     <t>Verify appliation URL is hitting server properly and displaying home page on all browsers.</t>
   </si>
   <si>
-    <t xml:space="preserve">Check the Javascript based functionalities  in Ebay application on different browsers. </t>
-  </si>
-  <si>
-    <t>Check the modules alignment on different pages of Ebay web application.</t>
-  </si>
-  <si>
-    <t>Verify all pages of Ebay web application rendering properly on different browsers.</t>
-  </si>
-  <si>
     <t>Regression Test</t>
   </si>
   <si>
     <t>Check the all links are working properly on different pages of the web site[ Ex:Sign In , Regiser, Customer Support etc]</t>
   </si>
   <si>
-    <t>Verify all functionalities of the website like Buy,Sell, Sign In, Registration.</t>
-  </si>
-  <si>
-    <t>Check the end to end flows an application like starting from searching an item to purchasing and making a payment.</t>
-  </si>
-  <si>
     <t>Check the dependency functionalities across the website.</t>
   </si>
   <si>
     <t>Project Name:</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Designed date: </t>
-  </si>
-  <si>
-    <t>Release Version:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Executed by: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Execution date: </t>
-  </si>
-  <si>
     <t>Usability Testing</t>
   </si>
   <si>
     <t>Check Font size, style and color for headline, description text, labels, infield data, and grid info should be standard as specified in SRS.</t>
   </si>
   <si>
-    <t>Check all pages on the Ebay application for broken Images and links.</t>
-  </si>
-  <si>
     <t>User should not be able to type in drop down select lists and dropdown field values should be displayed in defined sort order.</t>
-  </si>
-  <si>
-    <t>Integration Testing</t>
-  </si>
-  <si>
-    <t>Check the interface between searching an item and pulling corresponding results from a specific category.</t>
-  </si>
-  <si>
-    <t>Check the interface between Registration and Sign Into the website.</t>
-  </si>
-  <si>
-    <t>Check the redirection between different country websites.</t>
-  </si>
-  <si>
-    <t>Verify the interface between Ebay and third party websites like 'Facebook,Twitter'.</t>
-  </si>
-  <si>
-    <t>Ebay.Com</t>
-  </si>
-  <si>
-    <t>EbayFunctional Requirement Document</t>
-  </si>
-  <si>
-    <t>Reference Docuements</t>
   </si>
   <si>
     <t>Test Case Id</t>
@@ -181,55 +90,18 @@
     <t>Application should be loaded properly with a proper alignment on all browsers.</t>
   </si>
   <si>
-    <t>1. Open the Ebay application in any  browser.
-2. Check the Javascript based functionalities in the application like clicking button ,Submitting Forms.
-3. Verify these functaionalities across the website.</t>
-  </si>
-  <si>
     <t>All Javascript based functionalities should work as expected.</t>
   </si>
   <si>
-    <t>1. Open the Ebay.Com website on different browsers.
-2. Check modules &amp; content alignment in the website  by going through different pages.
-3.Make sure the website is consistent acorss all the browsers.</t>
-  </si>
-  <si>
     <t>All the modules and content on entire website should be consistent across all the browsers.</t>
   </si>
   <si>
-    <t>Check the all the funcationalities like searching for an item,purchasing an item etc..</t>
-  </si>
-  <si>
-    <t>1.Open Ebay website on different browsers(IE,Fire Fox,Chorme).
-2. Navigate though different pages like different categories as Electronics,Books etc.
-3. Verify all pages are rendering properly without any module breaking and overlapping content.</t>
-  </si>
-  <si>
     <t>All pages across the website should be rendered properly without any module breaking and content overlapping.</t>
   </si>
   <si>
-    <t>1.Go to Ebay.Com website on different browsers.
-2. Check the major functionalities like searching an item, purchasing an item across all the browsers.
-3. Make sure that functionalities are working same across all the browsers.</t>
-  </si>
-  <si>
     <t>All functionalities should work as expected across all the browsers.</t>
   </si>
   <si>
-    <t>1.Go to home page of the Ebay website.
-2. Click on the links like Sign In,Register,Customer Support.
-3. And then navigate to different screens on the website.
-4. Look for all broken links on the pages.</t>
-  </si>
-  <si>
-    <t>1.Open Ebay.com in the browser.
-2.Check main functionalities like Buy,Sell,Sign In,Registration.
-3. In the same way verify the rest of the functionalities in the website.</t>
-  </si>
-  <si>
-    <t>Verify all category item pages are displaying correctly with proper alignment &amp;content.</t>
-  </si>
-  <si>
     <t>All the category pages should be displayed with proper alignment &amp; content.</t>
   </si>
   <si>
@@ -239,24 +111,9 @@
     <t>All functionalities across the website should work as expected.</t>
   </si>
   <si>
-    <t>1. Go to Ebay.com website.
-2. Verify the end to end flow of search an item and then placing order &amp; purchasing it.
-3. In a similar way verify the rest of the end to end flow functionalities in the website.</t>
-  </si>
-  <si>
     <t>Verify all fields on web pages aligned properly.</t>
   </si>
   <si>
-    <t>1. Open the Ebay.com in any browser.
-2. Check the all fields like on different pages of the website.
-3. Make sure all fields are aligned properly on different pages.</t>
-  </si>
-  <si>
-    <t>1. Go to Ebay website.
-2. Check Font Size, Color,CSS, content alignment in the modules as per the requirement document.
-3. Verify the CSS style across the website of the page.</t>
-  </si>
-  <si>
     <t>Font size,Style and Color should be standard as specified in SRS.</t>
   </si>
   <si>
@@ -270,16 +127,6 @@
   </si>
   <si>
     <t>All fields across the website should be aligned properly.</t>
-  </si>
-  <si>
-    <t>1. Open Ebay website on any browser.
-2. Look for broken Images and links on the home page.
-3. Check the same thing across the website.</t>
-  </si>
-  <si>
-    <t>1. Go to Ebay.com website.
-2. Check for dropdown select lists and dropdown fields vlaues across the website.
-3. Verify those dropdown fields are not editable and lists defined in sort order.</t>
   </si>
   <si>
     <t>All dropdown field values and select lists shouldn't be editable and those should be defined in sorted order.</t>
@@ -291,122 +138,136 @@
 4.Check the error message and then try to edit the information and correct them.</t>
   </si>
   <si>
-    <t>1. Go to ebay.com.
-2. Select the specific category from the dropdown which is placed at next to the search button.
-3. Enter the search input in the text field and click on search button.
-4.Check the corresponding search results are matching with the selected category from the dropdown.</t>
-  </si>
-  <si>
-    <t>Search results should be pulled from the specific category based on search input.</t>
-  </si>
-  <si>
-    <t>1. Click on the Register link on the home page of the Ebay.
-2. Enter all required fields on the registration page.
-3. Click on the submit button and then try to login with register userid/password.</t>
-  </si>
-  <si>
     <t>TC_004</t>
   </si>
   <si>
     <t>TC_005</t>
   </si>
   <si>
-    <t>User should be able to register into the website and then should be able login with registered credentails.</t>
+    <t>All end to end flows should work as expected across the website.</t>
+  </si>
+  <si>
+    <t>All dependency functionalities should work as per functional requirement document.</t>
+  </si>
+  <si>
+    <t>Registered user should be able to login into website with valid user credentials.</t>
+  </si>
+  <si>
+    <t>Broken links and Images should be displayed invalid page or Image whenever we click on the them.</t>
+  </si>
+  <si>
+    <t>Information filled by users should remain intact when there is error message on page submit. User should be able to submit the form again by correcting the errors.</t>
+  </si>
+  <si>
+    <t>Error should message should be displayed whenever user enter incorrect information in the website and it should only allowed after re-correcting entered data.</t>
+  </si>
+  <si>
+    <t>New user should be able to register into website through Sign In page.</t>
+  </si>
+  <si>
+    <t>Functionality Testing</t>
+  </si>
+  <si>
+    <t>NPU.EDU</t>
+  </si>
+  <si>
+    <t>1. Open the NPU application in any  browser.
+2. Check the Javascript based functionalities in the application like clicking button ,Submitting Forms.
+3. Verify these functaionalities across the website.</t>
+  </si>
+  <si>
+    <t>1. Open the NPU.Edu website on different browsers.
+2. Check modules &amp; content alignment in the website  by going through different pages.
+3.Make sure the website is consistent acorss all the browsers.</t>
+  </si>
+  <si>
+    <t>Check the modules alignment on different pages of NPU application.</t>
+  </si>
+  <si>
+    <t>Verify all pages of NPU  application rendering properly on different browsers.</t>
+  </si>
+  <si>
+    <t>1.Open NPU website on different browsers(IE,Fire Fox,Chorme).
+2. Navigate though different pages like  Home,Admissions,Academics etc.
+3. Verify all pages are rendering properly without any module breaking and overlapping content.</t>
+  </si>
+  <si>
+    <t>Check the all the funcationalities like Student Portal, Faculty portal etc.</t>
+  </si>
+  <si>
+    <t>1.Go to NPU.EDU website on different browsers.
+2. Check the major functionalities like Student Portal, Faculty portal across all the browsers.
+3. Make sure that functionalities are working same across all the browsers.</t>
+  </si>
+  <si>
+    <t>Verify the different functionalities like Student Login,Faculty login etc.</t>
+  </si>
+  <si>
+    <t>Verify all navigation links are working in header part of the NPU website.</t>
+  </si>
+  <si>
+    <t>Verify are links are working in the footer of the NPU website.</t>
+  </si>
+  <si>
+    <t>Verify the new user able to create account through register account.</t>
+  </si>
+  <si>
+    <t>Verify new applicant able to submit the application throught online.</t>
+  </si>
+  <si>
+    <t>1. Open the NPU.EDU in any browser.
+2. Check the all fields like on different pages of the website.
+3. Make sure all fields are aligned properly on different pages.</t>
+  </si>
+  <si>
+    <t>1. Go to NPU website.
+2. Check Font Size, Color,CSS, content alignment in the modules as per the requirement document.
+3. Verify the CSS style across the website of the page.</t>
+  </si>
+  <si>
+    <t>1. Open NPU website on any browser.
+2. Look for broken Images and links on the home page.
+3. Check the same thing across the website.</t>
+  </si>
+  <si>
+    <t>1. Go to NPU.EDU website.
+2. Check for dropdown select lists and dropdown fields vlaues across the website.
+3. Verify those dropdown fields are not editable and lists defined in sort order.</t>
+  </si>
+  <si>
+    <t>1.Go to NPU home page.
+2. Click on different categories like 'Motors,Electronics' on the home page.
+3. Check all pages are displaying  properly with a proper alignment.</t>
+  </si>
+  <si>
+    <t>Verify all pages are displaying correctly with proper alignment &amp;content.</t>
+  </si>
+  <si>
+    <t>1.Go to home page of the NPU website.
+2. Click on the links like Sign In,Register,Customer Support.
+3. And then navigate to different screens on the website.
+4. Look for all broken links on the pages.</t>
+  </si>
+  <si>
+    <t>Verify all functionalities of the website like Student Login,Faculty Login etc.</t>
+  </si>
+  <si>
+    <t>1.Open NPU.EDU in the browser.
+2.Check main functionalities like Studetn Login,Faculty Login etc.
+3. In the same way verify the rest of the functionalities in the website.</t>
+  </si>
+  <si>
+    <t>Check the end to end flows an application like registering account and submitting a application.</t>
+  </si>
+  <si>
+    <t>1. Go to NPU.EDU website.
+2. Verify the end to end flow of application like registering account and submitting a application.
+3. In a similar way verify the rest of the end to end flow functionalities in the website.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. Open Following URL in the browser.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="3" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Www.Ebay.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Click on different categories like 'Fashion,'Electronics' on the home page.
-3. Chek that pages are redirecting to corresponding category page.
-4. Similar way check the dependency between different pages on the website.</t>
-    </r>
-  </si>
-  <si>
-    <t>1.Go to Ebay home page.
-2. In the footer click on the country dropdown and select any country.
-3. Check that user is redirecting to corresponding country website.</t>
-  </si>
-  <si>
-    <t>Verify the interface between different webpages across the website.</t>
-  </si>
-  <si>
-    <t>User should be redirect to corresponding pages when he clicked on any category or other pages in the website.</t>
-  </si>
-  <si>
-    <t>On selecting  country from dropdown,User should be redirect to corresponding country website.</t>
-  </si>
-  <si>
-    <t>On clicking links in the footer user should be redirect to the corresponding third party website.</t>
-  </si>
-  <si>
-    <t>All end to end flows should work as expected across the website.</t>
-  </si>
-  <si>
-    <r>
-      <t>1) Go to Ebay website(URL:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="3" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>www.ebay.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-2) Enter the item name in the text field and select the category from the dropdown.
-3) Click on search button.
-4) Check the search results according to the search criteria.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Open the following URL in browser.
-URL : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="3" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>www.Ebay.com</t>
+      <t>1. Open the following URL in browser.
+URL : https://npu.edu</t>
     </r>
     <r>
       <rPr>
@@ -428,45 +289,124 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">2. Check all dependency functionalities like Sign In &amp; Registeration and search an item &amp; pulling results from the corresponding category.
+      <t xml:space="preserve">2. Check all dependency functionalities like Registering account, Submitting a application etc.
 3. Similar way check the all dependency functionalities across the website.
 </t>
     </r>
   </si>
   <si>
-    <t>All dependency functionalities should work as per functional requirement document.</t>
-  </si>
-  <si>
-    <t>Registered user should be able to login into website with valid user credentials.</t>
-  </si>
-  <si>
-    <t>User should be able to place order after login into the website with valid user credentials.</t>
-  </si>
-  <si>
-    <t>Broken links and Images should be displayed invalid page or Image whenever we click on the them.</t>
-  </si>
-  <si>
-    <t>Information filled by users should remain intact when there is error message on page submit. User should be able to submit the form again by correcting the errors.</t>
-  </si>
-  <si>
-    <t>Error should message should be displayed whenever user enter incorrect information in the website and it should only allowed after re-correcting entered data.</t>
-  </si>
-  <si>
-    <t>New user should be able to register into website through Sign In page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to footer on the ebay home page.
-2. Click on the Facebook link and check that user redirecting to corresponding facebook page.
-3. Similar way click on the other links like twitter and check that user is redirecting corresponding third party website.
+    <t>Check the navigation thorugh different categories(Home,Admissions etc) on the home page.</t>
+  </si>
+  <si>
+    <t>1) Go to NPU.Edu website.
+2) Click on the Register link at the top left side of the home page.
+3) Enter all details on the registeration page and click on submit button.
+4) Verify user is able to register into NPU website.</t>
+  </si>
+  <si>
+    <t>1) Open NPU.Edu web site in any browser.
+2) Click on Sign In link at the top left side of the home page.
+3) Enter user name &amp; password on sign In page and click on submit button.
+4) Check user is able to login into NPU application.</t>
+  </si>
+  <si>
+    <t>Verify user is able to submit online application through registered account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login Into website with valid user credentials.
+2)  Fill all the required fields.
+3. Click on submit button.
 </t>
   </si>
   <si>
-    <t>1.Go to Ebay home page.
-2. Click on different categories like 'Motors,Electronics' on the home page.
-3. Check all pages are displaying  properly with a proper alignment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Designed by: </t>
+    <t>User should be able to submit the application through registered account.</t>
+  </si>
+  <si>
+    <t>1. Go to NPU.Edu web site.
+2. Click on links in the header like Home,Admissions,Academics,Campus etc.
+3.Check all links are redirecting to correct pages.</t>
+  </si>
+  <si>
+    <t>All links in the header should redirect to correct pages.</t>
+  </si>
+  <si>
+    <t>1. Go to NPU.Edu web site.
+2. Check student user able to login into his account .
+3. Verify the faculty user able to login into his account.</t>
+  </si>
+  <si>
+    <t>All the functionalities should work as functional requirement document.</t>
+  </si>
+  <si>
+    <t>1. Go to NPU.Edu web site.
+2. Click on links in the footer like Student Login,Faculty Login etc
+3.Check all links are redirecting to correct pages.</t>
+  </si>
+  <si>
+    <t>All links in the footer should redirect to correct pages.</t>
+  </si>
+  <si>
+    <t>1.Go to NPU website.
+2. Click on the Register account in the footer and then enter all the data in all required fields.
+3. Submit the application.</t>
+  </si>
+  <si>
+    <t>New user should be able to create account throgh register account link</t>
+  </si>
+  <si>
+    <t>1. Go to NPU website and click on Online Application on the home screen.
+2. Login with registered credentails and c submit the application.
+3. Check user is able to submit the application without any errors.</t>
+  </si>
+  <si>
+    <t>Registered user is able to submit the application through online.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the Javascript based functionalities  in NPU application on different browsers. </t>
+  </si>
+  <si>
+    <t>Check all pages on the NPU application for broken Images and links.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Open the NPU.Edu website on any browser.
+2) Verify the different category links (Home,Admission etc) available on the  home page.
+3) Navigate through different categories by clicking on them.
+4) Check user is navigating the corresponding category when user click on the category link.
+</t>
+  </si>
+  <si>
+    <t>Verify different users(Student,Faculty) able to login into their respective accounts.</t>
+  </si>
+  <si>
+    <r>
+      <t>1) Go to NPU website(URL:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>www.NPU.Edu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2) Login as Student and check user is able to login into account.
+3) Similar way check for faculty user.</t>
+    </r>
+  </si>
+  <si>
+    <t>Different users should be able to login into their account respectively.</t>
   </si>
 </sst>
 </file>
@@ -722,55 +662,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="933450" cy="790574"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1064,13 +955,13 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="51.85546875" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
@@ -1081,14 +972,12 @@
     <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="16"/>
       <c r="B1" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>102</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D1" s="13"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="15"/>
@@ -1099,15 +988,9 @@
     </row>
     <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="17"/>
-      <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="15"/>
@@ -1117,13 +1000,9 @@
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="17"/>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
@@ -1135,9 +1014,7 @@
       <c r="A4" s="18"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
@@ -1156,7 +1033,7 @@
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>0</v>
@@ -1177,21 +1054,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="90">
+    <row r="7" spans="1:11" ht="60">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>6</v>
@@ -1202,19 +1079,19 @@
     </row>
     <row r="8" spans="1:11" ht="123" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>6</v>
@@ -1225,19 +1102,19 @@
     </row>
     <row r="9" spans="1:11" ht="90">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>6</v>
@@ -1248,19 +1125,19 @@
     </row>
     <row r="10" spans="1:11" ht="90">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>6</v>
@@ -1269,21 +1146,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="75">
+    <row r="11" spans="1:11" ht="60">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>6</v>
@@ -1303,19 +1180,19 @@
     </row>
     <row r="13" spans="1:11" ht="75">
       <c r="A13" s="3" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>6</v>
@@ -1326,19 +1203,19 @@
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>6</v>
@@ -1349,19 +1226,19 @@
     </row>
     <row r="15" spans="1:11" ht="75">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>6</v>
@@ -1372,19 +1249,19 @@
     </row>
     <row r="16" spans="1:11" ht="90">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>6</v>
@@ -1395,19 +1272,19 @@
     </row>
     <row r="17" spans="1:7" ht="75">
       <c r="A17" s="3" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>6</v>
@@ -1427,19 +1304,19 @@
     </row>
     <row r="19" spans="1:7" ht="75">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>6</v>
@@ -1450,19 +1327,19 @@
     </row>
     <row r="20" spans="1:7" ht="90">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>6</v>
@@ -1473,19 +1350,19 @@
     </row>
     <row r="21" spans="1:7" ht="75">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>6</v>
@@ -1496,19 +1373,19 @@
     </row>
     <row r="22" spans="1:7" ht="75">
       <c r="A22" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>6</v>
@@ -1517,21 +1394,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="120">
+    <row r="23" spans="1:7" ht="105">
       <c r="A23" s="3" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>6</v>
@@ -1551,19 +1428,19 @@
     </row>
     <row r="25" spans="1:7" ht="75">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>6</v>
@@ -1574,19 +1451,19 @@
     </row>
     <row r="26" spans="1:7" ht="60">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>6</v>
@@ -1597,19 +1474,19 @@
     </row>
     <row r="27" spans="1:7" ht="45">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>6</v>
@@ -1620,19 +1497,19 @@
     </row>
     <row r="28" spans="1:7" ht="75">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>6</v>
@@ -1643,19 +1520,19 @@
     </row>
     <row r="29" spans="1:7" ht="90">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>6</v>
@@ -1673,21 +1550,21 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="105">
+    <row r="31" spans="1:7" ht="60">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>6</v>
@@ -1696,18 +1573,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="75">
+    <row r="32" spans="1:7" ht="45">
       <c r="A32" s="3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>83</v>
@@ -1719,64 +1596,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120">
+    <row r="33" spans="1:7" ht="60">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="75">
-      <c r="A34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="90">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="105">
-      <c r="A35" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>89</v>
@@ -1799,6 +1676,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>